--- a/Easy-System-Frame-n-Legs.xlsx
+++ b/Easy-System-Frame-n-Legs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6b799b81391c3a9b/Projects/ModelRailway/MJ-Bord/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F9EB043-AE9A-4437-B8CE-D152A1390BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{6F9EB043-AE9A-4437-B8CE-D152A1390BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12C26E27-E860-465A-AEBA-E53BD94DF5E1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{E5BE0C04-A213-4C06-ABBF-F2FE256DFFA4}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="19200" windowHeight="11210" xr2:uid="{E5BE0C04-A213-4C06-ABBF-F2FE256DFFA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>Ben</t>
   </si>
@@ -137,24 +137,12 @@
     <t>Bordsinfästning</t>
   </si>
   <si>
-    <t>BSB 2513 S</t>
-  </si>
-  <si>
     <t>2x1200 mm</t>
   </si>
   <si>
-    <t>Aluminiumprofil, BSB 45 x 45, T-spår 10mm</t>
-  </si>
-  <si>
     <t>Bordsinfästning - täcklock</t>
   </si>
   <si>
-    <t>Täcklock 45x45 för BSB aluminiumprofil 45x45 med T-spår 10mm</t>
-  </si>
-  <si>
-    <t>BSB 401020</t>
-  </si>
-  <si>
     <t>1x2188</t>
   </si>
   <si>
@@ -168,6 +156,15 @@
   </si>
   <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>Aluminiumprofil, BSB 40 x 40, T-spår 10mm</t>
+  </si>
+  <si>
+    <t>BSB 4040?</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -551,7 +548,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -605,7 +602,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F2">
-        <f>D2*E2</f>
+        <f t="shared" ref="F2:F15" si="0">D2*E2</f>
         <v>869.00000000000011</v>
       </c>
       <c r="G2" t="s">
@@ -629,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="F3">
-        <f>D3*E3</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
     </row>
@@ -650,7 +647,7 @@
         <v>4</v>
       </c>
       <c r="F4">
-        <f>D4*E4</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
@@ -671,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <f>D5*E5</f>
+        <f t="shared" si="0"/>
         <v>1300</v>
       </c>
     </row>
@@ -692,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <f>D6*E6</f>
+        <f t="shared" si="0"/>
         <v>192</v>
       </c>
     </row>
@@ -713,7 +710,7 @@
         <v>4</v>
       </c>
       <c r="F7">
-        <f>D7*E7</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
     </row>
@@ -734,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="F8">
-        <f>D8*E8</f>
+        <f t="shared" si="0"/>
         <v>1185</v>
       </c>
       <c r="G8" t="s">
@@ -758,7 +755,7 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <f>D9*E9</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
@@ -779,11 +776,11 @@
         <v>2.1880000000000002</v>
       </c>
       <c r="F10">
-        <f>D10*E10</f>
+        <f t="shared" si="0"/>
         <v>864.2600000000001</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -803,7 +800,7 @@
         <v>4</v>
       </c>
       <c r="F11">
-        <f>D11*E11</f>
+        <f t="shared" si="0"/>
         <v>192</v>
       </c>
     </row>
@@ -824,7 +821,7 @@
         <v>4</v>
       </c>
       <c r="F12">
-        <f>D12*E12</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
     </row>
@@ -833,55 +830,53 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13">
-        <v>288</v>
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
       </c>
       <c r="E13">
         <v>2.4</v>
       </c>
-      <c r="F13">
-        <f>D13*E13</f>
-        <v>691.19999999999993</v>
+      <c r="F13" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14">
-        <v>18</v>
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
       </c>
       <c r="E14">
         <v>4</v>
       </c>
-      <c r="F14">
-        <f>D14*E14</f>
-        <v>72</v>
+      <c r="F14" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D15">
         <v>251</v>
@@ -890,24 +885,21 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <f>D15*E15</f>
+        <f t="shared" si="0"/>
         <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="1">
+        <v>39</v>
+      </c>
+      <c r="F16" s="1" t="e">
         <f>SUM(F2:F15)</f>
-        <v>6247.46</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" display="https://shop.easysystems.se/aluminiumprofiler/tacklock-45x45-for-bsb-aluminiumprofil-45x45-med-t-spar-10mm" xr:uid="{A0694FE0-2B88-44F1-A7B4-86353B13EE6B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>